--- a/ResultadoEleicoesDistritos/FARO_OLHÃO.xlsx
+++ b/ResultadoEleicoesDistritos/FARO_OLHÃO.xlsx
@@ -597,64 +597,64 @@
         <v>11271</v>
       </c>
       <c r="H2" t="n">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="I2" t="n">
-        <v>1120</v>
+        <v>1075</v>
       </c>
       <c r="J2" t="n">
-        <v>4495</v>
+        <v>4703</v>
       </c>
       <c r="K2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L2" t="n">
-        <v>1272</v>
+        <v>1318</v>
       </c>
       <c r="M2" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="N2" t="n">
-        <v>835</v>
+        <v>750</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S2" t="n">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="T2" t="n">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="U2" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="V2" t="n">
-        <v>7265</v>
+        <v>7123</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>7251</v>
+        <v>7268</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
